--- a/LuBan/Datas/E_Effect.xlsx
+++ b/LuBan/Datas/E_Effect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32200" windowHeight="15370"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -42,6 +42,9 @@
     <t>CanCritical</t>
   </si>
   <si>
+    <t>AttachStatus</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
     <t>bool</t>
   </si>
   <si>
+    <t>int#ref=Status.StatusTable</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -91,6 +97,9 @@
   </si>
   <si>
     <t>能否暴击</t>
+  </si>
+  <si>
+    <t>附加状态</t>
   </si>
   <si>
     <t>普通攻击</t>
@@ -1131,13 +1140,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="16.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="2" width="20.6363636363636" style="2" customWidth="1"/>
     <col min="3" max="3" width="50.9090909090909" style="2" customWidth="1"/>
@@ -1146,11 +1155,13 @@
     <col min="6" max="6" width="26.3636363636364" style="2" customWidth="1"/>
     <col min="7" max="7" width="34.9090909090909" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.6363636363636" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.1818181818182" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="20.6363636363636" style="2" customWidth="1"/>
+    <col min="9" max="9" width="50.6363636363636" style="2" customWidth="1"/>
+    <col min="10" max="10" width="26" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.6363636363636" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="20.6363636363636" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="18" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1175,129 +1186,144 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="18" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="18" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="18" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="18" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" ht="17.25" spans="1:8">
+    <row r="5" ht="17.25" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>0.5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="H6" s="2" t="b">
         <v>1</v>
@@ -1305,25 +1331,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2" t="b">
         <v>0</v>

--- a/LuBan/Datas/E_Effect.xlsx
+++ b/LuBan/Datas/E_Effect.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -24,7 +24,25 @@
     <t>Id</t>
   </si>
   <si>
-    <t>SkillAffectTargetType</t>
+    <t>EffectType</t>
+  </si>
+  <si>
+    <t>ControlType</t>
+  </si>
+  <si>
+    <t>EffectTarget</t>
+  </si>
+  <si>
+    <t>EffectTiming</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>CanStack</t>
+  </si>
+  <si>
+    <t>Interval</t>
   </si>
   <si>
     <t>Probability</t>
@@ -36,40 +54,37 @@
     <t>ValueType</t>
   </si>
   <si>
-    <t>EffectType</t>
-  </si>
-  <si>
     <t>CanCritical</t>
   </si>
   <si>
-    <t>AttachStatus</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>Skill.Enum.SkillAffectTargetType</t>
+    <t>Effect.Enum.EffectType</t>
+  </si>
+  <si>
+    <t>Effect.Enum.ControlType</t>
+  </si>
+  <si>
+    <t>Effect.Enum.EffectTarget</t>
+  </si>
+  <si>
+    <t>Effect.Enum.EffectTiming</t>
   </si>
   <si>
     <t>float</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
-    <t>Skill.Enum.DamageType</t>
-  </si>
-  <si>
-    <t>Skill.Enum.EffectType</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>int#ref=Status.StatusTable</t>
+    <t>Effect.Enum.DamageType</t>
   </si>
   <si>
     <t>##group</t>
@@ -81,7 +96,25 @@
     <t>##</t>
   </si>
   <si>
-    <t>目标类型</t>
+    <t>效果类型</t>
+  </si>
+  <si>
+    <t>控制类型</t>
+  </si>
+  <si>
+    <t>作用目标</t>
+  </si>
+  <si>
+    <t>生效时机</t>
+  </si>
+  <si>
+    <t>持续时间(毫秒)</t>
+  </si>
+  <si>
+    <t>可否叠加</t>
+  </si>
+  <si>
+    <t>间隔</t>
   </si>
   <si>
     <t>触发概率</t>
@@ -93,19 +126,22 @@
     <t>伤害类型</t>
   </si>
   <si>
-    <t>效果类型</t>
-  </si>
-  <si>
     <t>能否暴击</t>
   </si>
   <si>
-    <t>附加状态</t>
-  </si>
-  <si>
-    <t>普通攻击</t>
-  </si>
-  <si>
-    <t>敌方</t>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>时间内</t>
   </si>
   <si>
     <t>攻击力+20</t>
@@ -114,25 +150,25 @@
     <t>物理</t>
   </si>
   <si>
-    <t>伤害</t>
-  </si>
-  <si>
-    <t>普攻攻击2</t>
+    <t>治疗</t>
+  </si>
+  <si>
+    <t>自身</t>
+  </si>
+  <si>
+    <t>立刻</t>
   </si>
   <si>
     <t>攻击力*0.5</t>
   </si>
   <si>
-    <t>魔法</t>
-  </si>
-  <si>
-    <t>治疗</t>
-  </si>
-  <si>
-    <t>友方</t>
-  </si>
-  <si>
-    <t>攻击力*0.2</t>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>控制</t>
+  </si>
+  <si>
+    <t>禁止攻击|禁止移动</t>
   </si>
 </sst>
 </file>
@@ -1140,28 +1176,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="16.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="2" width="20.6363636363636" style="2" customWidth="1"/>
-    <col min="3" max="3" width="50.9090909090909" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.7272727272727" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.3636363636364" style="2" customWidth="1"/>
-    <col min="7" max="7" width="34.9090909090909" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.6363636363636" style="2" customWidth="1"/>
-    <col min="9" max="9" width="50.6363636363636" style="2" customWidth="1"/>
-    <col min="10" max="10" width="26" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.6363636363636" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="20.6363636363636" style="2" customWidth="1"/>
+    <col min="3" max="5" width="34.9090909090909" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.5454545454545" customWidth="1"/>
+    <col min="7" max="9" width="37.5454545454545" customWidth="1"/>
+    <col min="10" max="10" width="34" style="2" customWidth="1"/>
+    <col min="11" max="11" width="37.7272727272727" style="2" customWidth="1"/>
+    <col min="12" max="12" width="30.3636363636364" style="2" customWidth="1"/>
+    <col min="13" max="13" width="26" style="2" customWidth="1"/>
+    <col min="15" max="15" width="26" style="2" customWidth="1"/>
+    <col min="16" max="16" width="24.6363636363636" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="20.6363636363636" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="18" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1189,169 +1225,259 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="18" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="18" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="18" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="18" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="5" ht="17.25" spans="1:9">
+    <row r="5" ht="17.25" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>200</v>
+      </c>
+      <c r="J5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2" t="b">
+      <c r="K5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.5</v>
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
       </c>
       <c r="H6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
         <v>1</v>
       </c>
+      <c r="K6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="2">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="2" t="b">
+      <c r="K7" s="2">
+        <v>200</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="2" t="b">
         <v>0</v>
       </c>
     </row>

--- a/LuBan/Datas/E_Effect.xlsx
+++ b/LuBan/Datas/E_Effect.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -39,12 +39,12 @@
     <t>Duration</t>
   </si>
   <si>
+    <t>Interval</t>
+  </si>
+  <si>
     <t>CanStack</t>
   </si>
   <si>
-    <t>Interval</t>
-  </si>
-  <si>
     <t>Probability</t>
   </si>
   <si>
@@ -111,12 +111,12 @@
     <t>持续时间(毫秒)</t>
   </si>
   <si>
+    <t>间隔(毫秒)</t>
+  </si>
+  <si>
     <t>可否叠加</t>
   </si>
   <si>
-    <t>间隔</t>
-  </si>
-  <si>
     <t>触发概率</t>
   </si>
   <si>
@@ -141,7 +141,7 @@
     <t>目标</t>
   </si>
   <si>
-    <t>时间内</t>
+    <t>间隔触发</t>
   </si>
   <si>
     <t>攻击力+20</t>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>禁止攻击|禁止移动</t>
+  </si>
+  <si>
+    <t>持续时间</t>
   </si>
 </sst>
 </file>
@@ -1179,22 +1182,22 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="16.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="2" width="20.6363636363636" style="2" customWidth="1"/>
     <col min="3" max="5" width="34.9090909090909" style="2" customWidth="1"/>
-    <col min="6" max="6" width="37.5454545454545" customWidth="1"/>
-    <col min="7" max="9" width="37.5454545454545" customWidth="1"/>
+    <col min="6" max="9" width="37.5454545454545" customWidth="1"/>
     <col min="10" max="10" width="34" style="2" customWidth="1"/>
     <col min="11" max="11" width="37.7272727272727" style="2" customWidth="1"/>
     <col min="12" max="12" width="30.3636363636364" style="2" customWidth="1"/>
     <col min="13" max="13" width="26" style="2" customWidth="1"/>
     <col min="15" max="15" width="26" style="2" customWidth="1"/>
     <col min="16" max="16" width="24.6363636363636" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="20.6363636363636" style="2" customWidth="1"/>
+    <col min="17" max="16383" width="20.6363636363636" style="2" customWidth="1"/>
+    <col min="16384" max="16384" width="20.6363636363636" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" spans="1:13">
@@ -1261,10 +1264,10 @@
         <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>19</v>
@@ -1378,13 +1381,13 @@
         <v>41</v>
       </c>
       <c r="G5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H5" s="2">
         <v>1000</v>
       </c>
-      <c r="H5" s="2" t="b">
+      <c r="I5" s="2" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>200</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -1421,10 +1424,10 @@
       <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="2" t="b">
+      <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J6" s="2">
@@ -1457,16 +1460,16 @@
         <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G7" s="2">
         <v>5000</v>
       </c>
-      <c r="H7" s="2" t="b">
+      <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I7" s="2">
-        <v>1000</v>
+      <c r="I7" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>

--- a/LuBan/Datas/E_Effect.xlsx
+++ b/LuBan/Datas/E_Effect.xlsx
@@ -1182,7 +1182,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="16.5" outlineLevelRow="6"/>
